--- a/Rig_1_LED_power.xlsx
+++ b/Rig_1_LED_power.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adna.dumitrescu/Documents/Wyart_Postdoc/Data/OPSIN_testing_project/Opsin_Ephys_Analysis/Python_Scripts/Ephys_Analysis_Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0211EC4-94A8-4F44-A96F-AFEA8EE62BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3620EB4C-89D6-E341-9040-2649584E9724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46120" yWindow="3180" windowWidth="28040" windowHeight="16080" xr2:uid="{CADA3522-F066-E94B-8301-D5B91CEB916F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{CADA3522-F066-E94B-8301-D5B91CEB916F}"/>
   </bookViews>
   <sheets>
     <sheet name="Power_60x" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="174">
   <si>
     <t>0.269767441860465</t>
   </si>
@@ -555,6 +555,9 @@
   </si>
   <si>
     <t>Voltage_step_V_index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new crap info </t>
   </si>
 </sst>
 </file>
@@ -1158,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C18D99-C75E-5F48-8016-E3EEA0D5C502}">
   <dimension ref="A1:AG92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2529,6 +2532,9 @@
       <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>

--- a/Rig_1_LED_power.xlsx
+++ b/Rig_1_LED_power.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adna.dumitrescu/Documents/Wyart_Postdoc/Data/OPSIN_testing_project/Opsin_Ephys_Analysis/Python_Scripts/Ephys_Analysis_Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3620EB4C-89D6-E341-9040-2649584E9724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7288DF0-D38D-934C-9722-404793714525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{CADA3522-F066-E94B-8301-D5B91CEB916F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="173">
   <si>
     <t>0.269767441860465</t>
   </si>
@@ -555,9 +555,6 @@
   </si>
   <si>
     <t>Voltage_step_V_index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new crap info </t>
   </si>
 </sst>
 </file>
@@ -2532,9 +2529,6 @@
       <c r="P42" s="4"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
